--- a/data/case1/2/Plm1_3.xlsx
+++ b/data/case1/2/Plm1_3.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.36975038151169315</v>
+        <v>-0.36502413272566514</v>
       </c>
       <c r="B1" s="0">
-        <v>0.3689005135299368</v>
+        <v>0.36420101044477349</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.32279283692268379</v>
+        <v>-0.28677358724321245</v>
       </c>
       <c r="B2" s="0">
-        <v>0.31929604438949433</v>
+        <v>0.28404421452323447</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.14550380310375743</v>
+        <v>-0.18109693327555121</v>
       </c>
       <c r="B3" s="0">
-        <v>0.14479437956525842</v>
+        <v>0.18031626477263529</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.13279437976747488</v>
+        <v>-0.16831626506168007</v>
       </c>
       <c r="B4" s="0">
-        <v>0.13217363098186397</v>
+        <v>0.16761498772823025</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.12617363169328932</v>
+        <v>-0.16161498891419424</v>
       </c>
       <c r="B5" s="0">
-        <v>0.1249436242816504</v>
+        <v>0.16020926392638302</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.099313998526320724</v>
+        <v>-0.070259905094758768</v>
       </c>
       <c r="B6" s="0">
-        <v>0.099172884923408589</v>
+        <v>0.070198765212354797</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.079172885790899983</v>
+        <v>-0.050198766633942071</v>
       </c>
       <c r="B7" s="0">
-        <v>0.078839100351633107</v>
+        <v>0.050076652815471689</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.058839101228663537</v>
+        <v>-0.030076654245160483</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0585770826134695</v>
+        <v>0.029985483770760268</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.052577083367319588</v>
+        <v>-0.023985485012421037</v>
       </c>
       <c r="B9" s="0">
-        <v>0.052363724178695392</v>
+        <v>0.023909584989863397</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.046363724942416695</v>
+        <v>-0.017909586237131236</v>
       </c>
       <c r="B10" s="0">
-        <v>0.046340105184590641</v>
+        <v>0.017909235655487521</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.041840105935136762</v>
+        <v>-0.013409236882186093</v>
       </c>
       <c r="B11" s="0">
-        <v>0.041796100639903244</v>
+        <v>0.013390732067772859</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.035796101407168823</v>
+        <v>-0.00016545133693135483</v>
       </c>
       <c r="B12" s="0">
-        <v>0.035661561591677771</v>
+        <v>0.00016312211887781203</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.029661562368633376</v>
+        <v>0.0058368766336780453</v>
       </c>
       <c r="B13" s="0">
-        <v>0.029628545355374847</v>
+        <v>-0.0058378278841404452</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.017628546192612227</v>
+        <v>0.01783782655386279</v>
       </c>
       <c r="B14" s="0">
-        <v>0.017615680939834455</v>
+        <v>-0.017850858270970882</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.011615681721311333</v>
+        <v>0.0238508570266589</v>
       </c>
       <c r="B15" s="0">
-        <v>0.01160759359416641</v>
+        <v>-0.023881005217035955</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015028053278902442</v>
+        <v>0.057452763676357321</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004159313864118</v>
+        <v>-0.057738365470439312</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.00900416010014915</v>
+        <v>0.063738364251506141</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999991841720473</v>
+        <v>-0.063933829276870746</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036107677314827669</v>
+        <v>-0.067427424378049494</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036096428820254545</v>
+        <v>0.067376772970000331</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096429518939313</v>
+        <v>-0.058376774134129228</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013195869999063</v>
+        <v>0.0579770243896367</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013196575019208</v>
+        <v>-0.01801292937173038</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004244743865527</v>
+        <v>0.018004290133831091</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.009004245449832915</v>
+        <v>-0.0090042913225172327</v>
       </c>
       <c r="B21" s="0">
-        <v>0.008999999293373584</v>
+        <v>0.0089999988104612072</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.16479224200980447</v>
+        <v>-0.093947282446221081</v>
       </c>
       <c r="B22" s="0">
-        <v>0.1640068617666941</v>
+        <v>0.093635319183670518</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084639077675860541</v>
+        <v>-0.084635320392023594</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084127595309382741</v>
+        <v>0.084126667327117488</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042127596372180776</v>
+        <v>-0.042126669012313656</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998931356863</v>
+        <v>0.041999998306384789</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019629626485418328</v>
+        <v>-0.094919175885973317</v>
       </c>
       <c r="B25" s="0">
-        <v>0.019605838699174427</v>
+        <v>0.094680299305078819</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.013605839429793321</v>
+        <v>-0.088680300532288925</v>
       </c>
       <c r="B26" s="0">
-        <v>0.013575713685739288</v>
+        <v>0.088368634300323379</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0075757144168777657</v>
+        <v>-0.082368635533739187</v>
       </c>
       <c r="B27" s="0">
-        <v>0.0074692886724165852</v>
+        <v>0.08128792957390063</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0014692894049552763</v>
+        <v>-0.075287930832774741</v>
       </c>
       <c r="B28" s="0">
-        <v>0.0013997804351317811</v>
+        <v>0.074539552903396533</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062524223052637495</v>
+        <v>-0.062539554262464492</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062165737473353744</v>
+        <v>0.062170155324766441</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.04216573834535442</v>
+        <v>-0.042170156802634473</v>
       </c>
       <c r="B30" s="0">
-        <v>0.04201848158466337</v>
+        <v>0.04201823788481418</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027018482415956058</v>
+        <v>-0.027018239304291924</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000596454296755</v>
+        <v>0.027000398117460023</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.006000597344328007</v>
+        <v>-0.0060003996222723899</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999992534836011</v>
+        <v>0.0059999987041052805</v>
       </c>
     </row>
   </sheetData>
